--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -735,14 +735,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,140 +756,134 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="J21:AQ21"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1286,170 +1286,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="58" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="55" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="57"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="64"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1465,17 +1465,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1484,67 +1484,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="47" t="s">
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1653,15 +1653,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1670,10 +1670,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="37">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="37" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1712,25 +1712,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="49" t="s">
+      <c r="AR8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1769,17 +1769,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="50"/>
+      <c r="AR9" s="31"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="35">
         <v>2</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1788,8 +1788,8 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="11" t="s">
@@ -1828,25 +1828,29 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="50"/>
+      <c r="AR10" s="31"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1877,17 +1881,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="50"/>
+      <c r="AR11" s="31"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1896,8 +1900,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1938,25 +1942,27 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="50"/>
+      <c r="AR12" s="31"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1987,17 +1993,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="50"/>
+      <c r="AR13" s="31"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2006,8 +2012,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2062,19 +2068,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="50"/>
+      <c r="AR14" s="31"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2109,17 +2115,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="50"/>
+      <c r="AR15" s="31"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="33">
+      <c r="A16" s="35">
         <v>5</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="37" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2128,8 +2134,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2182,18 +2188,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="50"/>
+      <c r="AR16" s="31"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2228,20 +2234,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="50"/>
+      <c r="AR17" s="31"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="32">
+      <c r="A18" s="39">
         <v>6</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2250,8 +2256,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2292,18 +2298,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="50"/>
+      <c r="AR18" s="31"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="33"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2338,18 +2344,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="50"/>
+      <c r="AR19" s="31"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="35">
         <v>7</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="35" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2358,8 +2364,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2400,18 +2406,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="50"/>
+      <c r="AR20" s="31"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="33"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2446,18 +2452,18 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="50"/>
+      <c r="AR21" s="31"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="33">
+      <c r="A22" s="35">
         <v>8</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="35" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2466,8 +2472,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2508,18 +2514,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="50"/>
+      <c r="AR22" s="31"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="33"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2554,18 +2560,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="50"/>
+      <c r="AR23" s="31"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="33">
+      <c r="A24" s="35">
         <v>9</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2574,8 +2580,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2614,18 +2620,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="50"/>
+      <c r="AR24" s="31"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="33"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2660,18 +2666,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="50"/>
+      <c r="AR25" s="31"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="33">
+      <c r="A26" s="35">
         <v>10</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="33" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2680,8 +2686,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2726,18 +2732,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="50"/>
+      <c r="AR26" s="31"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2772,20 +2778,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="50"/>
+      <c r="AR27" s="31"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="32">
+      <c r="A28" s="39">
         <v>11</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="39" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2794,8 +2800,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2836,18 +2842,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="50"/>
+      <c r="AR28" s="31"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="33"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2882,18 +2888,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="50"/>
+      <c r="AR29" s="31"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="33">
+      <c r="A30" s="35">
         <v>12</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="33" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="35" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2902,8 +2908,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2944,18 +2950,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="50"/>
+      <c r="AR30" s="31"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="33"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -2990,18 +2996,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="50"/>
+      <c r="AR31" s="31"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="33">
-        <v>13</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="33" t="s">
+      <c r="A32" s="35">
+        <v>13</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3010,8 +3016,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3058,18 +3064,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="50"/>
+      <c r="AR32" s="31"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="33"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="36"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3104,18 +3110,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="50"/>
+      <c r="AR33" s="31"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="33">
+      <c r="A34" s="35">
         <v>14</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="33" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3124,8 +3130,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3164,18 +3170,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="50"/>
+      <c r="AR34" s="31"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="33"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3210,18 +3216,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="50"/>
+      <c r="AR35" s="31"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="35">
         <v>15</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="33" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="35" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3230,8 +3236,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3272,18 +3278,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="50"/>
+      <c r="AR36" s="31"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3318,20 +3324,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="50"/>
+      <c r="AR37" s="31"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="32">
+      <c r="A38" s="39">
         <v>16</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3340,8 +3346,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3380,18 +3386,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="50"/>
+      <c r="AR38" s="31"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="33"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3426,18 +3432,18 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="50"/>
+      <c r="AR39" s="31"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="33">
+      <c r="A40" s="35">
         <v>17</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="33" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="35" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3446,8 +3452,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3488,18 +3494,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="50"/>
+      <c r="AR40" s="31"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="33"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3534,18 +3540,18 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="50"/>
+      <c r="AR41" s="31"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="33">
+      <c r="A42" s="35">
         <v>18</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="33" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3554,8 +3560,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3594,18 +3600,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="50"/>
+      <c r="AR42" s="31"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="33"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3640,18 +3646,18 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="50"/>
+      <c r="AR43" s="31"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="33">
+      <c r="A44" s="35">
         <v>19</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="33" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3660,8 +3666,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3700,18 +3706,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="50"/>
+      <c r="AR44" s="31"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="33"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3746,18 +3752,18 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="50"/>
+      <c r="AR45" s="31"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="33">
+      <c r="A46" s="35">
         <v>20</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="33" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="35" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3766,8 +3772,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3806,18 +3812,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="50"/>
+      <c r="AR46" s="31"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="33"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3852,18 +3858,18 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="50"/>
+      <c r="AR47" s="31"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="35">
         <v>21</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="33" t="s">
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="35" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3872,8 +3878,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3922,18 +3928,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="50"/>
+      <c r="AR48" s="31"/>
     </row>
     <row r="49" spans="1:44">
-      <c r="A49" s="33"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -3968,71 +3974,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="51"/>
+      <c r="AR49" s="32"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="AR8:AR49"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
@@ -4057,110 +4167,6 @@
     <mergeCell ref="B8:C17"/>
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>M13, M14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,6 +739,130 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,24 +878,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,112 +888,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1286,170 +1290,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="65" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="61" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="62" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="64"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1465,17 +1469,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1484,67 +1488,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="57" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="58"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1653,15 +1657,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1670,10 +1674,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="32">
         <v>1</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1712,25 +1716,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="30" t="s">
+      <c r="AR8" s="72" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1769,17 +1773,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="31"/>
+      <c r="AR9" s="73"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1788,8 +1792,12 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="11" t="s">
@@ -1828,21 +1836,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="31"/>
+      <c r="AR10" s="73"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1881,17 +1889,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="31"/>
+      <c r="AR11" s="73"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1900,8 +1908,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="32">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="32"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1942,24 +1952,26 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="31"/>
+      <c r="AR12" s="73"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="M13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1993,17 +2005,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="31"/>
+      <c r="AR13" s="73"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="30">
         <v>4</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2012,8 +2024,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2068,19 +2080,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="31"/>
+      <c r="AR14" s="73"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2115,17 +2127,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="31"/>
+      <c r="AR15" s="73"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="77" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="70" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2134,8 +2146,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2188,18 +2200,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="31"/>
+      <c r="AR16" s="73"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="78"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2234,20 +2246,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="31"/>
+      <c r="AR17" s="73"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="39">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2256,8 +2268,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2298,18 +2310,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="31"/>
+      <c r="AR18" s="73"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="35"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2344,18 +2356,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="31"/>
+      <c r="AR19" s="73"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="35">
+      <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="35" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="30" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2364,8 +2376,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2406,18 +2418,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="31"/>
+      <c r="AR20" s="73"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="35"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2452,18 +2464,18 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="31"/>
+      <c r="AR21" s="73"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="35">
+      <c r="A22" s="30">
         <v>8</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="35" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2472,8 +2484,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2514,18 +2526,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="31"/>
+      <c r="AR22" s="73"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="35"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2560,18 +2572,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="31"/>
+      <c r="AR23" s="73"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="35">
+      <c r="A24" s="30">
         <v>9</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="35" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="30" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2580,8 +2592,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2620,18 +2632,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="31"/>
+      <c r="AR24" s="73"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="35"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2666,18 +2678,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="31"/>
+      <c r="AR25" s="73"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="35">
+      <c r="A26" s="30">
         <v>10</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="35" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2686,8 +2698,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2732,18 +2744,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="31"/>
+      <c r="AR26" s="73"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2778,20 +2790,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="31"/>
+      <c r="AR27" s="73"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="39">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2800,8 +2812,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2842,18 +2854,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="31"/>
+      <c r="AR28" s="73"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="35"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2888,18 +2900,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="31"/>
+      <c r="AR29" s="73"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="35">
+      <c r="A30" s="30">
         <v>12</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="35" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2908,8 +2920,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2950,18 +2962,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="31"/>
+      <c r="AR30" s="73"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="35"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -2996,18 +3008,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="31"/>
+      <c r="AR31" s="73"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="35">
-        <v>13</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="35" t="s">
+      <c r="A32" s="30">
+        <v>13</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="30" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3016,8 +3028,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="37"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3064,18 +3076,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="31"/>
+      <c r="AR32" s="73"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="35"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="38"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3110,18 +3122,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="31"/>
+      <c r="AR33" s="73"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="35">
+      <c r="A34" s="30">
         <v>14</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="35" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3130,8 +3142,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3170,18 +3182,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="31"/>
+      <c r="AR34" s="73"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="35"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3216,18 +3228,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="31"/>
+      <c r="AR35" s="73"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="35">
+      <c r="A36" s="30">
         <v>15</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="35" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3236,8 +3248,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3278,18 +3290,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="31"/>
+      <c r="AR36" s="73"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3324,20 +3336,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="31"/>
+      <c r="AR37" s="73"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="39">
+      <c r="A38" s="40">
         <v>16</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3346,8 +3358,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3386,18 +3398,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="31"/>
+      <c r="AR38" s="73"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="35"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3432,18 +3444,18 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="31"/>
+      <c r="AR39" s="73"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="35">
+      <c r="A40" s="30">
         <v>17</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="35" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3452,8 +3464,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3494,18 +3506,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="31"/>
+      <c r="AR40" s="73"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="35"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3540,18 +3552,18 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="31"/>
+      <c r="AR41" s="73"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="35">
+      <c r="A42" s="30">
         <v>18</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="35" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3560,8 +3572,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3600,18 +3612,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="31"/>
+      <c r="AR42" s="73"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="35"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3646,18 +3658,18 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="31"/>
+      <c r="AR43" s="73"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="35">
+      <c r="A44" s="30">
         <v>19</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="35" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="30" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3666,8 +3678,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3706,18 +3718,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="31"/>
+      <c r="AR44" s="73"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="35"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3752,18 +3764,18 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="31"/>
+      <c r="AR45" s="73"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="35">
+      <c r="A46" s="30">
         <v>20</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="35" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3772,8 +3784,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3812,18 +3824,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="31"/>
+      <c r="AR46" s="73"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="35"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3858,18 +3870,18 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="31"/>
+      <c r="AR47" s="73"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="35">
+      <c r="A48" s="30">
         <v>21</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="35" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3878,8 +3890,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3928,18 +3940,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="31"/>
+      <c r="AR48" s="73"/>
     </row>
     <row r="49" spans="1:44">
-      <c r="A49" s="35"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="38"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -3974,176 +3986,71 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="32"/>
+      <c r="AR49" s="74"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AR8:AR49"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4167,6 +4074,111 @@
     <mergeCell ref="B8:C17"/>
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -285,9 +285,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -676,7 +676,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +739,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,37 +757,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,25 +875,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,27 +884,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1290,170 +1290,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="49" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="50" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1469,17 +1469,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1488,67 +1488,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="45" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1657,15 +1657,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1674,10 +1674,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1716,25 +1716,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="72" t="s">
+      <c r="AR8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1773,17 +1773,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="73"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1792,10 +1792,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1836,21 +1836,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="73"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1889,17 +1889,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="73"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1908,10 +1908,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="34">
         <v>0.67</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1952,21 +1952,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="73"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2005,17 +2005,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="73"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2024,8 +2024,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2080,19 +2080,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="73"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2127,17 +2127,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="73"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="30">
+      <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="70" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="49" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2146,8 +2146,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2200,18 +2200,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="73"/>
+      <c r="AR16" s="77"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2246,20 +2246,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="73"/>
+      <c r="AR17" s="77"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2268,8 +2268,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2310,23 +2310,27 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="73"/>
+      <c r="AR18" s="77"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="8">
+        <v>43908</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="12"/>
@@ -2356,18 +2360,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="73"/>
+      <c r="AR19" s="77"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="30">
+      <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="30" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2376,8 +2380,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2418,18 +2422,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="73"/>
+      <c r="AR20" s="77"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2464,18 +2468,18 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="73"/>
+      <c r="AR21" s="77"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2484,8 +2488,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2526,18 +2530,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="73"/>
+      <c r="AR22" s="77"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2572,18 +2576,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="73"/>
+      <c r="AR23" s="77"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="30">
+      <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2592,8 +2596,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2632,18 +2636,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="73"/>
+      <c r="AR24" s="77"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="30"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2678,18 +2682,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="73"/>
+      <c r="AR25" s="77"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="30">
+      <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="30" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2698,8 +2702,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2744,23 +2748,27 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="73"/>
+      <c r="AR26" s="77"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="22">
+        <v>43908</v>
+      </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="23"/>
@@ -2790,20 +2798,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="73"/>
+      <c r="AR27" s="77"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2812,8 +2820,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2854,18 +2862,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="73"/>
+      <c r="AR28" s="77"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="30"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2900,18 +2908,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="73"/>
+      <c r="AR29" s="77"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="30">
+      <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2920,8 +2928,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2962,18 +2970,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="73"/>
+      <c r="AR30" s="77"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3008,18 +3016,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="73"/>
+      <c r="AR31" s="77"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="30">
-        <v>13</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="30" t="s">
+      <c r="A32" s="32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3028,8 +3036,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="32"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3076,18 +3084,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="73"/>
+      <c r="AR32" s="77"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="30"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3122,18 +3130,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="73"/>
+      <c r="AR33" s="77"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="30">
+      <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="30" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3142,8 +3150,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3182,18 +3190,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="73"/>
+      <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="30"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3228,18 +3236,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="73"/>
+      <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="30">
+      <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3248,8 +3256,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3290,18 +3298,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="73"/>
+      <c r="AR36" s="77"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3336,20 +3344,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="73"/>
+      <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="40">
+      <c r="A38" s="36">
         <v>16</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3358,8 +3366,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3398,18 +3406,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="73"/>
+      <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="30"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3444,18 +3452,18 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="73"/>
+      <c r="AR39" s="77"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="30">
+      <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="30" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3464,8 +3472,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3506,18 +3514,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="73"/>
+      <c r="AR40" s="77"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="30"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3552,18 +3560,18 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="73"/>
+      <c r="AR41" s="77"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="30">
+      <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="30" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3572,8 +3580,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3612,18 +3620,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="73"/>
+      <c r="AR42" s="77"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="30"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3658,18 +3666,18 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="73"/>
+      <c r="AR43" s="77"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="30">
+      <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="30" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3678,8 +3686,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3718,18 +3726,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="73"/>
+      <c r="AR44" s="77"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="30"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3764,18 +3772,18 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="73"/>
+      <c r="AR45" s="77"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="30">
+      <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="30" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3784,8 +3792,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3824,18 +3832,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="73"/>
+      <c r="AR46" s="77"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="30"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3870,18 +3878,18 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="73"/>
+      <c r="AR47" s="77"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="30">
+      <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="30" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3890,8 +3898,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3940,18 +3948,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="73"/>
+      <c r="AR48" s="77"/>
     </row>
     <row r="49" spans="1:44">
-      <c r="A49" s="30"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -3986,71 +3994,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="74"/>
+      <c r="AR49" s="78"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4075,110 +4187,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -285,9 +285,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -676,7 +676,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,30 +739,145 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,126 +888,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1290,170 +1290,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="60" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="61" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1469,17 +1469,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1488,67 +1488,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="56" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1657,15 +1657,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1674,10 +1674,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="32">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1716,25 +1716,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="76" t="s">
+      <c r="AR8" s="72" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1773,17 +1773,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="77"/>
+      <c r="AR9" s="73"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1792,10 +1792,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="32" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1836,21 +1836,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="77"/>
+      <c r="AR10" s="73"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1889,17 +1889,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="77"/>
+      <c r="AR11" s="73"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1908,10 +1908,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>0.67</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1952,21 +1952,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="77"/>
+      <c r="AR12" s="73"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2005,17 +2005,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="77"/>
+      <c r="AR13" s="73"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2024,8 +2024,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2080,19 +2080,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="77"/>
+      <c r="AR14" s="73"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2127,17 +2127,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="77"/>
+      <c r="AR15" s="73"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="49" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="70" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2146,8 +2146,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2200,18 +2200,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="77"/>
+      <c r="AR16" s="73"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2246,20 +2246,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="77"/>
+      <c r="AR17" s="73"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2268,8 +2268,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2310,27 +2310,23 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="77"/>
+      <c r="AR18" s="73"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="8">
-        <v>43908</v>
-      </c>
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="12"/>
@@ -2360,18 +2356,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="77"/>
+      <c r="AR19" s="73"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2380,8 +2376,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2422,18 +2418,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="77"/>
+      <c r="AR20" s="73"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2468,18 +2464,18 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="77"/>
+      <c r="AR21" s="73"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="32" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2488,8 +2484,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2530,18 +2526,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="77"/>
+      <c r="AR22" s="73"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2576,18 +2572,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="77"/>
+      <c r="AR23" s="73"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="32" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2596,8 +2592,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2636,18 +2632,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="77"/>
+      <c r="AR24" s="73"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2682,18 +2678,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="77"/>
+      <c r="AR25" s="73"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2702,8 +2698,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2748,27 +2744,23 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="77"/>
+      <c r="AR26" s="73"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="22">
-        <v>43908</v>
-      </c>
+      <c r="A27" s="42"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="23"/>
@@ -2798,20 +2790,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="77"/>
+      <c r="AR27" s="73"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2820,8 +2812,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2862,18 +2854,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="77"/>
+      <c r="AR28" s="73"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2908,18 +2900,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="77"/>
+      <c r="AR29" s="73"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2928,8 +2920,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2970,18 +2962,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="77"/>
+      <c r="AR30" s="73"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3016,18 +3008,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="77"/>
+      <c r="AR31" s="73"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="32">
-        <v>13</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="32" t="s">
+      <c r="A32" s="30">
+        <v>13</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3036,8 +3028,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3084,18 +3076,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="77"/>
+      <c r="AR32" s="73"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3130,18 +3122,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="77"/>
+      <c r="AR33" s="73"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3150,8 +3142,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3190,18 +3182,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="77"/>
+      <c r="AR34" s="73"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3236,18 +3228,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="77"/>
+      <c r="AR35" s="73"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3256,8 +3248,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3298,18 +3290,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="77"/>
+      <c r="AR36" s="73"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3344,20 +3336,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="77"/>
+      <c r="AR37" s="73"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="36">
+      <c r="A38" s="40">
         <v>16</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3366,8 +3358,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3406,18 +3398,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="77"/>
+      <c r="AR38" s="73"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="32"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3452,18 +3444,18 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="77"/>
+      <c r="AR39" s="73"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <v>17</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="32" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3472,8 +3464,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3514,18 +3506,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="77"/>
+      <c r="AR40" s="73"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3560,18 +3552,18 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="77"/>
+      <c r="AR41" s="73"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="32" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3580,8 +3572,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3620,18 +3612,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="77"/>
+      <c r="AR42" s="73"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3666,18 +3658,18 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="77"/>
+      <c r="AR43" s="73"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="32" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="30" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3686,8 +3678,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3726,18 +3718,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="77"/>
+      <c r="AR44" s="73"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3772,18 +3764,18 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="77"/>
+      <c r="AR45" s="73"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="32" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3792,8 +3784,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3832,18 +3824,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="77"/>
+      <c r="AR46" s="73"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3878,18 +3870,18 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="77"/>
+      <c r="AR47" s="73"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="32" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3898,8 +3890,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3948,18 +3940,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="77"/>
+      <c r="AR48" s="73"/>
     </row>
     <row r="49" spans="1:44">
-      <c r="A49" s="32"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -3994,107 +3986,137 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="78"/>
+      <c r="AR49" s="74"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A63:Z64"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="AB6:AR6"/>
     <mergeCell ref="A1:AI2"/>
     <mergeCell ref="L3:AI3"/>
@@ -4119,74 +4141,44 @@
     <mergeCell ref="AR8:AR49"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="E34:E35"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A63:Z64"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>M13, M14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +743,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,37 +761,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,25 +879,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,22 +888,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1290,170 +1294,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="49" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="50" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1469,17 +1473,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1488,67 +1492,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="45" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1657,15 +1661,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1674,10 +1678,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1716,25 +1720,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="72" t="s">
+      <c r="AR8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1773,17 +1777,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="73"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1792,10 +1796,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1836,21 +1840,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="73"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1889,17 +1893,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="73"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1908,10 +1912,12 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="32">
-        <v>0.67</v>
-      </c>
-      <c r="I12" s="32"/>
+      <c r="H12" s="34">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1952,21 +1958,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="73"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -1975,7 +1981,9 @@
       <c r="M13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="12"/>
@@ -2005,17 +2013,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="73"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2024,8 +2032,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2080,26 +2088,32 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="73"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="N15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="13"/>
@@ -2127,17 +2141,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="73"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="30">
+      <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="70" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="49" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2146,8 +2160,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2200,18 +2214,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="73"/>
+      <c r="AR16" s="77"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2246,20 +2260,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="73"/>
+      <c r="AR17" s="77"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2268,8 +2282,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2310,18 +2324,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="73"/>
+      <c r="AR18" s="77"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2356,18 +2370,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="73"/>
+      <c r="AR19" s="77"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="30">
+      <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="30" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2376,8 +2390,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2418,18 +2432,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="73"/>
+      <c r="AR20" s="77"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2464,18 +2478,18 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="73"/>
+      <c r="AR21" s="77"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2484,8 +2498,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2526,18 +2540,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="73"/>
+      <c r="AR22" s="77"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2572,18 +2586,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="73"/>
+      <c r="AR23" s="77"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="30">
+      <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2592,8 +2606,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2632,18 +2646,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="73"/>
+      <c r="AR24" s="77"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="30"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2678,18 +2692,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="73"/>
+      <c r="AR25" s="77"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="30">
+      <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="30" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2698,8 +2712,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2744,18 +2758,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="73"/>
+      <c r="AR26" s="77"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2790,20 +2804,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="73"/>
+      <c r="AR27" s="77"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2812,8 +2826,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2854,18 +2868,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="73"/>
+      <c r="AR28" s="77"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="30"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2900,18 +2914,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="73"/>
+      <c r="AR29" s="77"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="30">
+      <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2920,8 +2934,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2962,18 +2976,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="73"/>
+      <c r="AR30" s="77"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3008,18 +3022,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="73"/>
+      <c r="AR31" s="77"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="30">
-        <v>13</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="30" t="s">
+      <c r="A32" s="32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3028,8 +3042,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="32"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3076,18 +3090,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="73"/>
+      <c r="AR32" s="77"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="30"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3122,18 +3136,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="73"/>
+      <c r="AR33" s="77"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="30">
+      <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="30" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3142,8 +3156,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3182,18 +3196,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="73"/>
+      <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="30"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3228,18 +3242,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="73"/>
+      <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="30">
+      <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3248,8 +3262,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3290,18 +3304,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="73"/>
+      <c r="AR36" s="77"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3336,20 +3350,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="73"/>
+      <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="40">
+      <c r="A38" s="36">
         <v>16</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3358,8 +3372,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3398,18 +3412,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="73"/>
+      <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="30"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3444,18 +3458,18 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="73"/>
+      <c r="AR39" s="77"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="30">
+      <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="30" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3464,8 +3478,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3506,18 +3520,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="73"/>
+      <c r="AR40" s="77"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="30"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3552,18 +3566,18 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="73"/>
+      <c r="AR41" s="77"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="30">
+      <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="30" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3572,8 +3586,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3612,18 +3626,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="73"/>
+      <c r="AR42" s="77"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="30"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3658,18 +3672,18 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="73"/>
+      <c r="AR43" s="77"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="30">
+      <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="30" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3678,8 +3692,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3718,18 +3732,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="73"/>
+      <c r="AR44" s="77"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="30"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3764,18 +3778,18 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="73"/>
+      <c r="AR45" s="77"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="30">
+      <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="30" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3784,8 +3798,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3824,18 +3838,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="73"/>
+      <c r="AR46" s="77"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="30"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3870,18 +3884,18 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="73"/>
+      <c r="AR47" s="77"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="30">
+      <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="30" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3890,8 +3904,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3940,18 +3954,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="73"/>
+      <c r="AR48" s="77"/>
     </row>
     <row r="49" spans="1:44">
-      <c r="A49" s="30"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -3986,71 +4000,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="74"/>
+      <c r="AR49" s="78"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4075,110 +4193,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -743,30 +743,145 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,121 +892,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1294,170 +1294,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="60" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="61" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1473,17 +1473,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1492,67 +1492,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="56" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1664,10 +1664,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1678,10 +1678,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1720,15 +1720,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="76" t="s">
+      <c r="AR8" s="65" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1737,8 +1737,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1777,15 +1777,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="77"/>
+      <c r="AR9" s="66"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1796,10 +1796,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1840,21 +1840,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="77"/>
+      <c r="AR10" s="66"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1893,15 +1893,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="77"/>
+      <c r="AR11" s="66"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1912,10 +1912,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="30">
         <v>1</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -1958,21 +1958,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="77"/>
+      <c r="AR12" s="66"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2013,15 +2013,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="77"/>
+      <c r="AR13" s="66"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2032,8 +2032,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2088,19 +2088,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="77"/>
+      <c r="AR14" s="66"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2114,10 +2114,18 @@
       <c r="P15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
+      <c r="Q15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
@@ -2141,17 +2149,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="77"/>
+      <c r="AR15" s="66"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="73" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2160,8 +2168,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2214,18 +2222,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="77"/>
+      <c r="AR16" s="66"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2260,20 +2268,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="77"/>
+      <c r="AR17" s="66"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2282,8 +2290,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2324,18 +2332,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="77"/>
+      <c r="AR18" s="66"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2343,9 +2351,15 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="13"/>
+      <c r="Q19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
@@ -2370,14 +2384,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="77"/>
+      <c r="AR19" s="66"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2390,8 +2404,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2432,18 +2446,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="77"/>
+      <c r="AR20" s="66"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2478,14 +2492,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="77"/>
+      <c r="AR21" s="66"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2498,8 +2512,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2540,18 +2554,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="77"/>
+      <c r="AR22" s="66"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2586,14 +2600,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="77"/>
+      <c r="AR23" s="66"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2606,8 +2620,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2646,18 +2660,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="77"/>
+      <c r="AR24" s="66"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2692,14 +2706,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="77"/>
+      <c r="AR25" s="66"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2712,8 +2726,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2758,18 +2772,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="77"/>
+      <c r="AR26" s="66"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2804,20 +2818,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="77"/>
+      <c r="AR27" s="66"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2826,8 +2840,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2868,18 +2882,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="77"/>
+      <c r="AR28" s="66"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2888,9 +2902,15 @@
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
+      <c r="R29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -2914,14 +2934,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="77"/>
+      <c r="AR29" s="66"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -2934,8 +2954,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2976,18 +2996,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="77"/>
+      <c r="AR30" s="66"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3022,14 +3042,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="77"/>
+      <c r="AR31" s="66"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3042,8 +3062,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3090,18 +3110,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="77"/>
+      <c r="AR32" s="66"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3136,14 +3156,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="77"/>
+      <c r="AR33" s="66"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3156,8 +3176,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3196,18 +3216,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="77"/>
+      <c r="AR34" s="66"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3242,14 +3262,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="77"/>
+      <c r="AR35" s="66"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3262,8 +3282,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3304,18 +3324,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="77"/>
+      <c r="AR36" s="66"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3350,20 +3370,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="77"/>
+      <c r="AR37" s="66"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="36">
+      <c r="A38" s="40">
         <v>16</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3372,8 +3392,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3412,18 +3432,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="77"/>
+      <c r="AR38" s="66"/>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="32"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3432,8 +3452,12 @@
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="13"/>
+      <c r="R39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -3458,14 +3482,14 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="77"/>
+      <c r="AR39" s="66"/>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
@@ -3478,8 +3502,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3520,18 +3544,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="77"/>
+      <c r="AR40" s="66"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3566,14 +3590,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="77"/>
+      <c r="AR41" s="66"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
@@ -3586,8 +3610,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3626,18 +3650,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="77"/>
+      <c r="AR42" s="66"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3672,14 +3696,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="77"/>
+      <c r="AR43" s="66"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
@@ -3692,8 +3716,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3732,18 +3756,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="77"/>
+      <c r="AR44" s="66"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3778,14 +3802,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="77"/>
+      <c r="AR45" s="66"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
@@ -3798,8 +3822,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3838,18 +3862,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="77"/>
+      <c r="AR46" s="66"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3884,14 +3908,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="77"/>
+      <c r="AR47" s="66"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
@@ -3904,8 +3928,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3954,18 +3978,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="77"/>
+      <c r="AR48" s="66"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4000,71 +4024,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="78"/>
+      <c r="AR49" s="67"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="A63:Z64"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="D48:D49"/>
@@ -4089,110 +4217,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A63:Z64"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -743,11 +743,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,37 +755,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,41 +888,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1294,170 +1294,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="49" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="50" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1473,17 +1473,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1492,67 +1492,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="45" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1664,10 +1664,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1678,10 +1678,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1720,15 +1720,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="65" t="s">
+      <c r="AR8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1737,8 +1737,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1777,15 +1777,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="66"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1796,10 +1796,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1840,21 +1840,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="66"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1893,15 +1893,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="66"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1912,10 +1912,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="34" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -1958,21 +1958,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="66"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2013,15 +2013,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="66"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2032,8 +2032,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2088,19 +2088,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="66"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2149,17 +2149,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="66"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="49" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2168,8 +2168,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2222,18 +2222,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="66"/>
+      <c r="AR16" s="77"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="74"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2268,20 +2268,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="66"/>
+      <c r="AR17" s="77"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2290,8 +2290,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2332,18 +2332,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="66"/>
+      <c r="AR18" s="77"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2384,14 +2384,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="66"/>
+      <c r="AR19" s="77"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2404,8 +2404,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2446,18 +2446,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="66"/>
+      <c r="AR20" s="77"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2492,14 +2492,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="66"/>
+      <c r="AR21" s="77"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2512,8 +2512,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2554,18 +2554,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="66"/>
+      <c r="AR22" s="77"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2600,14 +2600,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="66"/>
+      <c r="AR23" s="77"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2660,18 +2660,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="66"/>
+      <c r="AR24" s="77"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2706,14 +2706,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="66"/>
+      <c r="AR25" s="77"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2726,8 +2726,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2772,18 +2772,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="66"/>
+      <c r="AR26" s="77"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2818,20 +2818,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="66"/>
+      <c r="AR27" s="77"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2840,8 +2840,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2882,18 +2882,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="66"/>
+      <c r="AR28" s="77"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2934,14 +2934,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="66"/>
+      <c r="AR29" s="77"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -2954,8 +2954,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2996,18 +2996,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="66"/>
+      <c r="AR30" s="77"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3042,14 +3042,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="66"/>
+      <c r="AR31" s="77"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3110,18 +3110,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="66"/>
+      <c r="AR32" s="77"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3156,14 +3156,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="66"/>
+      <c r="AR33" s="77"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3176,8 +3176,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3216,18 +3216,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="66"/>
+      <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="31"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3262,14 +3262,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="66"/>
+      <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3282,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3324,18 +3324,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="66"/>
+      <c r="AR36" s="77"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3370,20 +3370,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="66"/>
+      <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="40">
+      <c r="A38" s="36">
         <v>16</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3392,8 +3392,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3432,18 +3432,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="66"/>
+      <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3458,7 +3458,9 @@
       <c r="S39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="T39" s="13"/>
+      <c r="T39" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -3482,14 +3484,14 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="66"/>
+      <c r="AR39" s="77"/>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3504,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3544,18 +3546,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="66"/>
+      <c r="AR40" s="77"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3590,14 +3592,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="66"/>
+      <c r="AR41" s="77"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
@@ -3610,8 +3612,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3650,18 +3652,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="66"/>
+      <c r="AR42" s="77"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3696,14 +3698,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="66"/>
+      <c r="AR43" s="77"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
@@ -3716,8 +3718,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3756,18 +3758,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="66"/>
+      <c r="AR44" s="77"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3802,14 +3804,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="66"/>
+      <c r="AR45" s="77"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
@@ -3822,8 +3824,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3862,18 +3864,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="66"/>
+      <c r="AR46" s="77"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3908,14 +3910,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="66"/>
+      <c r="AR47" s="77"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
@@ -3928,8 +3930,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3978,18 +3980,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="66"/>
+      <c r="AR48" s="77"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4024,71 +4026,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="67"/>
+      <c r="AR49" s="78"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4113,110 +4219,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>M13, M14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,30 +747,145 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,121 +896,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1294,170 +1298,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="60" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="61" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1473,17 +1477,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1492,67 +1496,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="56" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1664,10 +1668,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1678,10 +1682,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1720,15 +1724,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="76" t="s">
+      <c r="AR8" s="65" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1737,8 +1741,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1777,15 +1781,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="77"/>
+      <c r="AR9" s="66"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1796,10 +1800,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1840,21 +1844,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="77"/>
+      <c r="AR10" s="66"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1893,15 +1897,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="77"/>
+      <c r="AR11" s="66"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1912,10 +1916,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="30">
         <v>1</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -1958,21 +1962,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="77"/>
+      <c r="AR12" s="66"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2013,15 +2017,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="77"/>
+      <c r="AR13" s="66"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2032,8 +2036,10 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2088,19 +2094,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="77"/>
+      <c r="AR14" s="66"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2149,17 +2155,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="77"/>
+      <c r="AR15" s="66"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="73" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2168,8 +2174,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2222,18 +2228,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="77"/>
+      <c r="AR16" s="66"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2268,20 +2274,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="77"/>
+      <c r="AR17" s="66"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2290,8 +2296,12 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="41">
+        <v>1</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2332,18 +2342,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="77"/>
+      <c r="AR18" s="66"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2384,14 +2394,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="77"/>
+      <c r="AR19" s="66"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2404,8 +2414,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2446,18 +2456,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="77"/>
+      <c r="AR20" s="66"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2492,14 +2502,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="77"/>
+      <c r="AR21" s="66"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2512,8 +2522,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2554,18 +2564,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="77"/>
+      <c r="AR22" s="66"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2600,14 +2610,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="77"/>
+      <c r="AR23" s="66"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2620,8 +2630,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2660,18 +2670,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="77"/>
+      <c r="AR24" s="66"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2706,14 +2716,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="77"/>
+      <c r="AR25" s="66"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2726,8 +2736,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2772,18 +2782,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="77"/>
+      <c r="AR26" s="66"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2818,20 +2828,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="77"/>
+      <c r="AR27" s="66"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2840,8 +2850,10 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="41"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2882,18 +2894,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="77"/>
+      <c r="AR28" s="66"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2934,14 +2946,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="77"/>
+      <c r="AR29" s="66"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -2954,8 +2966,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2996,18 +3008,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="77"/>
+      <c r="AR30" s="66"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3042,14 +3054,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="77"/>
+      <c r="AR31" s="66"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3062,8 +3074,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3110,18 +3122,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="77"/>
+      <c r="AR32" s="66"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3156,14 +3168,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="77"/>
+      <c r="AR33" s="66"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3176,8 +3188,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3216,18 +3228,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="77"/>
+      <c r="AR34" s="66"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3262,14 +3274,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="77"/>
+      <c r="AR35" s="66"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3294,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3324,18 +3336,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="77"/>
+      <c r="AR36" s="66"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3370,20 +3382,20 @@
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
       <c r="AQ37" s="29"/>
-      <c r="AR37" s="77"/>
+      <c r="AR37" s="66"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="36">
+      <c r="A38" s="40">
         <v>16</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3392,8 +3404,10 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="I38" s="41"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3432,18 +3446,18 @@
       <c r="AO38" s="28"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
-      <c r="AR38" s="77"/>
+      <c r="AR38" s="66"/>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="32"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -3484,14 +3498,14 @@
       <c r="AO39" s="26"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="77"/>
+      <c r="AR39" s="66"/>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3518,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3546,18 +3560,18 @@
       <c r="AO40" s="26"/>
       <c r="AP40" s="26"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="77"/>
+      <c r="AR40" s="66"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3592,14 +3606,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="77"/>
+      <c r="AR41" s="66"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
@@ -3612,8 +3626,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3652,18 +3666,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="77"/>
+      <c r="AR42" s="66"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3698,14 +3712,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="77"/>
+      <c r="AR43" s="66"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
@@ -3718,8 +3732,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3758,18 +3772,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="77"/>
+      <c r="AR44" s="66"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3804,14 +3818,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="77"/>
+      <c r="AR45" s="66"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
@@ -3824,8 +3838,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3864,18 +3878,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="77"/>
+      <c r="AR46" s="66"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3910,14 +3924,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="77"/>
+      <c r="AR47" s="66"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +3944,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3980,18 +3994,18 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
-      <c r="AR48" s="77"/>
+      <c r="AR48" s="66"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4026,71 +4040,175 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
-      <c r="AR49" s="78"/>
+      <c r="AR49" s="67"/>
     </row>
     <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:44">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:44">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="A63:Z64"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="D48:D49"/>
@@ -4115,110 +4233,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A63:Z64"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2FEE2-9C7B-482E-BB05-864005E1F1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="516"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -287,13 +288,21 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달창 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
@@ -415,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -657,12 +666,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -747,11 +769,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -759,37 +781,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,47 +914,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,6 +1088,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1095,6 +1140,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,198 +1332,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS64"/>
+  <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="28" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.77734375" style="7" customWidth="1"/>
-    <col min="12" max="43" width="4.77734375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.88671875" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12" max="43" width="4.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="49" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-    </row>
-    <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+    </row>
+    <row r="4" spans="1:45" ht="21.2" customHeight="1">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="50" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1477,17 +1539,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1496,67 +1558,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="45" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1664,14 +1726,14 @@
       </c>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1682,10 +1744,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1724,15 +1786,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="65" t="s">
+      <c r="AR8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1741,8 +1803,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1781,15 +1843,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="66"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1800,10 +1862,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1844,21 +1906,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="66"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1897,15 +1959,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="66"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1916,10 +1978,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="34" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -1962,21 +2024,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="66"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2017,15 +2079,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="66"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2036,10 +2098,12 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="30"/>
+      <c r="H14" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2094,19 +2158,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="66"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
+    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2132,8 +2196,12 @@
       <c r="T15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="U15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="W15" s="13"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
@@ -2155,17 +2223,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="66"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2174,8 +2242,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2228,18 +2296,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="66"/>
-    </row>
-    <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="74"/>
+      <c r="AR16" s="77"/>
+    </row>
+    <row r="17" spans="1:44" ht="12.75" thickBot="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2274,20 +2342,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="66"/>
+      <c r="AR17" s="77"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2296,10 +2364,10 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="37">
         <v>1</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="37" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="19"/>
@@ -2342,18 +2410,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="66"/>
+      <c r="AR18" s="77"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2394,14 +2462,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="66"/>
+      <c r="AR19" s="77"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2414,8 +2482,12 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2456,18 +2528,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="66"/>
+      <c r="AR20" s="77"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2479,8 +2551,12 @@
       <c r="R21" s="12"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="U21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="W21" s="13"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -2502,14 +2578,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="66"/>
+      <c r="AR21" s="77"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2522,8 +2598,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2564,18 +2640,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="66"/>
+      <c r="AR22" s="77"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2610,14 +2686,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="66"/>
-    </row>
-    <row r="24" spans="1:44" ht="13.2" customHeight="1">
+      <c r="AR23" s="77"/>
+    </row>
+    <row r="24" spans="1:44" ht="13.15" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2630,8 +2706,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2670,18 +2746,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="66"/>
+      <c r="AR24" s="77"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2716,14 +2792,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="66"/>
+      <c r="AR25" s="77"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2736,8 +2812,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2782,18 +2858,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="66"/>
-    </row>
-    <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="AR26" s="77"/>
+    </row>
+    <row r="27" spans="1:44" ht="12.75" thickBot="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2828,21 +2904,21 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="66"/>
-    </row>
-    <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="40">
+      <c r="AR27" s="77"/>
+    </row>
+    <row r="28" spans="1:44" ht="12.75" customHeight="1" thickTop="1">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>47</v>
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="F28" s="15">
         <v>43912</v>
@@ -2850,10 +2926,12 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="41"/>
+      <c r="H28" s="37">
+        <v>1</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>16</v>
+      </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2894,18 +2972,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="66"/>
+      <c r="AR28" s="77"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2946,14 +3024,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="66"/>
+      <c r="AR29" s="77"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -2966,8 +3044,12 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -3008,18 +3090,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="66"/>
+      <c r="AR30" s="77"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3031,8 +3113,12 @@
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
+      <c r="U31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="W31" s="13"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -3054,14 +3140,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="66"/>
+      <c r="AR31" s="77"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3072,10 +3158,10 @@
         <v>43918</v>
       </c>
       <c r="G32" s="8">
-        <v>43923</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="30"/>
+        <v>43920</v>
+      </c>
+      <c r="H32" s="48"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3099,15 +3185,7 @@
       <c r="Z32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC32" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="AC32" s="11"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
@@ -3122,18 +3200,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="66"/>
+      <c r="AR32" s="77"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3168,14 +3246,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="66"/>
-    </row>
-    <row r="34" spans="1:44" ht="13.2" customHeight="1">
+      <c r="AR33" s="77"/>
+    </row>
+    <row r="34" spans="1:44" ht="13.15" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3183,13 +3261,13 @@
         <v>38</v>
       </c>
       <c r="F34" s="8">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="G34" s="8">
-        <v>43925</v>
-      </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="30"/>
+        <v>43922</v>
+      </c>
+      <c r="H34" s="48"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3207,15 +3285,13 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE34" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
@@ -3228,18 +3304,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="66"/>
+      <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="31"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3274,14 +3350,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="66"/>
-    </row>
-    <row r="36" spans="1:44" ht="13.2" customHeight="1">
+      <c r="AR35" s="77"/>
+    </row>
+    <row r="36" spans="1:44" ht="13.15" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3289,13 +3365,13 @@
         <v>39</v>
       </c>
       <c r="F36" s="8">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="G36" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+        <v>43924</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3315,18 +3391,16 @@
       <c r="Z36" s="26"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
+      <c r="AC36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH36" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
       <c r="AI36" s="26"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="26"/>
@@ -3336,242 +3410,240 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="66"/>
-    </row>
-    <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="66"/>
-    </row>
-    <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="40">
+      <c r="AR36" s="77"/>
+    </row>
+    <row r="37" spans="1:44" ht="12" customHeight="1">
+      <c r="A37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+      <c r="AR37" s="77"/>
+    </row>
+    <row r="38" spans="1:44" ht="12" customHeight="1">
+      <c r="A38" s="49">
         <v>16</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="8">
+        <v>43925</v>
+      </c>
+      <c r="G38" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="77"/>
+    </row>
+    <row r="39" spans="1:44" ht="12" customHeight="1" thickBot="1">
+      <c r="A39" s="80"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="27"/>
+      <c r="AR39" s="77"/>
+    </row>
+    <row r="40" spans="1:44" ht="12" customHeight="1" thickTop="1">
+      <c r="A40" s="36">
+        <v>17</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="40" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E40" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F40" s="15">
         <v>43912</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G40" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="41">
-        <v>0.7</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="S38" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="28"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="28"/>
-      <c r="AR38" s="66"/>
-    </row>
-    <row r="39" spans="1:44">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="66"/>
-    </row>
-    <row r="40" spans="1:44">
-      <c r="A40" s="32">
-        <v>17</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="8">
-        <v>43914</v>
-      </c>
-      <c r="G40" s="8">
-        <v>43916</v>
-      </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="W40" s="13"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="66"/>
+      <c r="H40" s="37">
+        <v>1</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="77"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3580,9 +3652,15 @@
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
+      <c r="R41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
@@ -3606,28 +3684,32 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="66"/>
+      <c r="AR41" s="77"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="8">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="G42" s="8">
-        <v>43918</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+        <v>43916</v>
+      </c>
+      <c r="H42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3638,15 +3720,17 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X42" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="T42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W42" s="13"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="26"/>
       <c r="AA42" s="13"/>
@@ -3666,18 +3750,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="66"/>
+      <c r="AR42" s="77"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3688,9 +3772,15 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
+      <c r="T43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
@@ -3712,28 +3802,28 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="66"/>
+      <c r="AR43" s="77"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="8">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="G44" s="8">
-        <v>43920</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+        <v>43918</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3747,14 +3837,14 @@
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="W44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="26"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
@@ -3772,18 +3862,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="66"/>
+      <c r="AR44" s="77"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3818,28 +3908,28 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="66"/>
-    </row>
-    <row r="46" spans="1:44" ht="13.2" customHeight="1">
+      <c r="AR45" s="77"/>
+    </row>
+    <row r="46" spans="1:44">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" s="8">
+        <v>43919</v>
+      </c>
+      <c r="G46" s="8">
         <v>43920</v>
       </c>
-      <c r="G46" s="8">
-        <v>43921</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3855,13 +3945,13 @@
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
       <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
+      <c r="Y46" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="Z46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
@@ -3878,18 +3968,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="66"/>
+      <c r="AR46" s="77"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3924,28 +4014,28 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="66"/>
-    </row>
-    <row r="48" spans="1:44" ht="13.2" customHeight="1">
+      <c r="AR47" s="77"/>
+    </row>
+    <row r="48" spans="1:44" ht="13.15" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F48" s="8">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="G48" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+        <v>43921</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -3962,50 +4052,40 @@
       <c r="W48" s="13"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI48" s="13"/>
+      <c r="Z48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
       <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
+      <c r="AK48" s="26"/>
       <c r="AL48" s="12"/>
       <c r="AM48" s="12"/>
       <c r="AN48" s="13"/>
-      <c r="AO48" s="13"/>
-      <c r="AP48" s="13"/>
-      <c r="AQ48" s="13"/>
-      <c r="AR48" s="66"/>
+      <c r="AO48" s="26"/>
+      <c r="AP48" s="26"/>
+      <c r="AQ48" s="26"/>
+      <c r="AR48" s="77"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4022,90 +4102,315 @@
       <c r="W49" s="13"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
-      <c r="Z49" s="13"/>
+      <c r="Z49" s="26"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
       <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
+      <c r="AK49" s="26"/>
       <c r="AL49" s="12"/>
       <c r="AM49" s="12"/>
       <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
-      <c r="AR49" s="67"/>
-    </row>
-    <row r="53" spans="1:44" ht="13.2" customHeight="1"/>
-    <row r="54" spans="1:44" ht="13.2" customHeight="1"/>
-    <row r="63" spans="1:44">
-      <c r="A63" s="75" t="s">
+      <c r="AO49" s="26"/>
+      <c r="AP49" s="26"/>
+      <c r="AQ49" s="26"/>
+      <c r="AR49" s="77"/>
+    </row>
+    <row r="50" spans="1:44" ht="13.15" customHeight="1">
+      <c r="A50" s="32">
+        <v>22</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="8">
+        <v>43922</v>
+      </c>
+      <c r="G50" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="77"/>
+    </row>
+    <row r="51" spans="1:44">
+      <c r="A51" s="32"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="78"/>
+    </row>
+    <row r="55" spans="1:44" ht="13.15" customHeight="1"/>
+    <row r="56" spans="1:44" ht="13.15" customHeight="1"/>
+    <row r="65" spans="1:26">
+      <c r="A65" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
-    </row>
-    <row r="64" spans="1:44">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="128">
-    <mergeCell ref="A63:Z64"/>
+  <mergeCells count="133">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B40:C51"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR51"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A65:Z66"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -4129,110 +4434,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2FEE2-9C7B-482E-BB05-864005E1F1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A8778-32C8-48FE-ADB7-3F71C25444DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,161 +769,161 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:AS66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I31"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1360,170 +1360,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="60" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:45" ht="21.2" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="61" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1539,17 +1539,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="80" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1558,67 +1558,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="56" t="s">
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1730,10 +1730,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1744,10 +1744,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1786,15 +1786,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="76" t="s">
+      <c r="AR8" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1803,8 +1803,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1843,15 +1843,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="77"/>
+      <c r="AR9" s="75"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1862,10 +1862,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1906,21 +1906,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="77"/>
+      <c r="AR10" s="75"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1959,15 +1959,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="77"/>
+      <c r="AR11" s="75"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1978,10 +1978,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="30">
         <v>1</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -2024,21 +2024,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="77"/>
+      <c r="AR12" s="75"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2079,15 +2079,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="77"/>
+      <c r="AR13" s="75"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2098,10 +2098,10 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="30">
         <v>0.8</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="12"/>
@@ -2158,19 +2158,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="77"/>
+      <c r="AR14" s="75"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2223,17 +2223,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="77"/>
+      <c r="AR15" s="75"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2242,8 +2242,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2296,18 +2296,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="77"/>
+      <c r="AR16" s="75"/>
     </row>
     <row r="17" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="51"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2342,20 +2342,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="77"/>
+      <c r="AR17" s="75"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2364,10 +2364,10 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="41">
         <v>1</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="19"/>
@@ -2410,18 +2410,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="77"/>
+      <c r="AR18" s="75"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2462,14 +2462,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="77"/>
+      <c r="AR19" s="75"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2482,10 +2482,10 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="30">
         <v>0.7</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J20" s="12"/>
@@ -2528,18 +2528,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="77"/>
+      <c r="AR20" s="75"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2578,14 +2578,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="77"/>
+      <c r="AR21" s="75"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2598,8 +2598,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2640,18 +2640,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="77"/>
+      <c r="AR22" s="75"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2686,14 +2686,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="77"/>
+      <c r="AR23" s="75"/>
     </row>
     <row r="24" spans="1:44" ht="13.15" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2706,8 +2706,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2746,18 +2746,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="77"/>
+      <c r="AR24" s="75"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2792,14 +2792,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="77"/>
+      <c r="AR25" s="75"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2812,8 +2812,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2858,18 +2858,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="77"/>
+      <c r="AR26" s="75"/>
     </row>
     <row r="27" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2904,20 +2904,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="77"/>
+      <c r="AR27" s="75"/>
     </row>
     <row r="28" spans="1:44" ht="12.75" customHeight="1" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="15">
@@ -2926,10 +2926,10 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="41">
         <v>1</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="19"/>
@@ -2972,18 +2972,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="77"/>
+      <c r="AR28" s="75"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -3024,14 +3024,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="77"/>
+      <c r="AR29" s="75"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -3044,10 +3044,10 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="30">
         <v>0.3</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="12"/>
@@ -3090,18 +3090,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="77"/>
+      <c r="AR30" s="75"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3140,14 +3140,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="77"/>
+      <c r="AR31" s="75"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3160,8 +3160,8 @@
       <c r="G32" s="8">
         <v>43920</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3200,18 +3200,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="77"/>
+      <c r="AR32" s="75"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3246,14 +3246,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="77"/>
+      <c r="AR33" s="75"/>
     </row>
     <row r="34" spans="1:44" ht="13.15" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3266,8 +3266,8 @@
       <c r="G34" s="8">
         <v>43922</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3304,18 +3304,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="77"/>
+      <c r="AR34" s="75"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3350,14 +3350,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="77"/>
+      <c r="AR35" s="75"/>
     </row>
     <row r="36" spans="1:44" ht="13.15" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3370,8 +3370,8 @@
       <c r="G36" s="8">
         <v>43924</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3410,18 +3410,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="77"/>
+      <c r="AR36" s="75"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="79"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="17"/>
@@ -3456,14 +3456,14 @@
       <c r="AO37" s="27"/>
       <c r="AP37" s="27"/>
       <c r="AQ37" s="27"/>
-      <c r="AR37" s="77"/>
+      <c r="AR37" s="75"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1">
-      <c r="A38" s="49">
+      <c r="A38" s="42">
         <v>16</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="32" t="s">
         <v>55</v>
       </c>
@@ -3476,8 +3476,8 @@
       <c r="G38" s="8">
         <v>43928</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="11"/>
@@ -3520,18 +3520,18 @@
       <c r="AO38" s="26"/>
       <c r="AP38" s="26"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="77"/>
+      <c r="AR38" s="75"/>
     </row>
     <row r="39" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="52"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="17"/>
@@ -3566,20 +3566,20 @@
       <c r="AO39" s="27"/>
       <c r="AP39" s="27"/>
       <c r="AQ39" s="27"/>
-      <c r="AR39" s="77"/>
+      <c r="AR39" s="75"/>
     </row>
     <row r="40" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A40" s="36">
+      <c r="A40" s="40">
         <v>17</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="35"/>
+      <c r="D40" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="15">
@@ -3588,10 +3588,10 @@
       <c r="G40" s="15">
         <v>43913</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="41">
         <v>1</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="19"/>
@@ -3632,18 +3632,18 @@
       <c r="AO40" s="28"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
-      <c r="AR40" s="77"/>
+      <c r="AR40" s="75"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3684,14 +3684,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="77"/>
+      <c r="AR41" s="75"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="32" t="s">
         <v>61</v>
       </c>
@@ -3704,10 +3704,10 @@
       <c r="G42" s="8">
         <v>43916</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="30">
         <v>1</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="12"/>
@@ -3750,18 +3750,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="77"/>
+      <c r="AR42" s="75"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3802,14 +3802,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="77"/>
+      <c r="AR43" s="75"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="32" t="s">
         <v>62</v>
       </c>
@@ -3822,8 +3822,8 @@
       <c r="G44" s="8">
         <v>43918</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3862,18 +3862,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="77"/>
+      <c r="AR44" s="75"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3908,14 +3908,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="77"/>
+      <c r="AR45" s="75"/>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="32" t="s">
         <v>63</v>
       </c>
@@ -3928,8 +3928,8 @@
       <c r="G46" s="8">
         <v>43920</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3968,18 +3968,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="77"/>
+      <c r="AR46" s="75"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -4014,14 +4014,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="77"/>
+      <c r="AR47" s="75"/>
     </row>
     <row r="48" spans="1:44" ht="13.15" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="32" t="s">
         <v>64</v>
       </c>
@@ -4034,8 +4034,8 @@
       <c r="G48" s="8">
         <v>43921</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4074,18 +4074,18 @@
       <c r="AO48" s="26"/>
       <c r="AP48" s="26"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="77"/>
+      <c r="AR48" s="75"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4120,14 +4120,14 @@
       <c r="AO49" s="26"/>
       <c r="AP49" s="26"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="77"/>
+      <c r="AR49" s="75"/>
     </row>
     <row r="50" spans="1:44" ht="13.15" customHeight="1">
       <c r="A50" s="32">
         <v>22</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -4140,8 +4140,8 @@
       <c r="G50" s="8">
         <v>43928</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="11"/>
@@ -4190,18 +4190,18 @@
       <c r="AO50" s="13"/>
       <c r="AP50" s="13"/>
       <c r="AQ50" s="13"/>
-      <c r="AR50" s="77"/>
+      <c r="AR50" s="75"/>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" s="32"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="11"/>
@@ -4236,71 +4236,180 @@
       <c r="AO51" s="13"/>
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
-      <c r="AR51" s="78"/>
+      <c r="AR51" s="76"/>
     </row>
     <row r="55" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="56" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="65" spans="1:26">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="79"/>
+      <c r="U66" s="79"/>
+      <c r="V66" s="79"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="133">
+    <mergeCell ref="A65:Z66"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR51"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="D50:D51"/>
@@ -4325,115 +4434,6 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B28:C39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR51"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A65:Z66"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A8778-32C8-48FE-ADB7-3F71C25444DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E647731-0825-44AE-8865-3E0C409EEC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -769,11 +769,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,149 +781,149 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1360,170 +1360,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="62" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="58" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
     </row>
     <row r="4" spans="1:45" ht="21.2" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="61"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1539,17 +1539,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1558,67 +1558,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="54" t="s">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1730,10 +1730,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1744,10 +1744,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1786,15 +1786,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="74" t="s">
+      <c r="AR8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1803,8 +1803,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1843,15 +1843,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="75"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1862,10 +1862,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1906,21 +1906,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="75"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1959,15 +1959,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="75"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1978,10 +1978,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="34" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -2024,21 +2024,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="75"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2079,15 +2079,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="75"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2098,10 +2098,10 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="34">
         <v>0.8</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="34" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="12"/>
@@ -2158,19 +2158,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="75"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2202,7 +2202,9 @@
       <c r="V15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W15" s="13"/>
+      <c r="W15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="26"/>
@@ -2223,17 +2225,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="75"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2242,8 +2244,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2296,18 +2298,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="75"/>
+      <c r="AR16" s="77"/>
     </row>
     <row r="17" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="78"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2342,20 +2344,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="75"/>
+      <c r="AR17" s="77"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2364,10 +2366,10 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="37">
         <v>1</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="37" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="19"/>
@@ -2410,18 +2412,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="75"/>
+      <c r="AR18" s="77"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2462,14 +2464,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="75"/>
+      <c r="AR19" s="77"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2482,11 +2484,11 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>71</v>
+      <c r="H20" s="34">
+        <v>1</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -2528,18 +2530,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="75"/>
+      <c r="AR20" s="77"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2557,7 +2559,9 @@
       <c r="V21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="13"/>
+      <c r="W21" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="26"/>
@@ -2578,14 +2582,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="75"/>
+      <c r="AR21" s="77"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2598,8 +2602,12 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2640,18 +2648,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="75"/>
+      <c r="AR22" s="77"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2667,7 +2675,9 @@
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="Z23" s="26"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
@@ -2686,14 +2696,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="75"/>
+      <c r="AR23" s="77"/>
     </row>
     <row r="24" spans="1:44" ht="13.15" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2706,8 +2716,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2746,18 +2756,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="75"/>
+      <c r="AR24" s="77"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2792,14 +2802,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="75"/>
+      <c r="AR25" s="77"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2812,8 +2822,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2858,18 +2868,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="75"/>
+      <c r="AR26" s="77"/>
     </row>
     <row r="27" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2904,20 +2914,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="75"/>
+      <c r="AR27" s="77"/>
     </row>
     <row r="28" spans="1:44" ht="12.75" customHeight="1" thickTop="1">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="36" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="15">
@@ -2926,10 +2936,10 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="37">
         <v>1</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="37" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="19"/>
@@ -2972,18 +2982,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="75"/>
+      <c r="AR28" s="77"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -3024,14 +3034,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="75"/>
+      <c r="AR29" s="77"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -3044,10 +3054,10 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="I30" s="30" t="s">
+      <c r="H30" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="12"/>
@@ -3090,18 +3100,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="75"/>
+      <c r="AR30" s="77"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3119,7 +3129,9 @@
       <c r="V31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="13"/>
+      <c r="W31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="13"/>
@@ -3140,14 +3152,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="75"/>
+      <c r="AR31" s="77"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3160,8 +3172,8 @@
       <c r="G32" s="8">
         <v>43920</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3200,18 +3212,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="75"/>
+      <c r="AR32" s="77"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3246,14 +3258,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="75"/>
+      <c r="AR33" s="77"/>
     </row>
     <row r="34" spans="1:44" ht="13.15" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3266,8 +3278,8 @@
       <c r="G34" s="8">
         <v>43922</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3304,18 +3316,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="75"/>
+      <c r="AR34" s="77"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="31"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3350,14 +3362,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="75"/>
+      <c r="AR35" s="77"/>
     </row>
     <row r="36" spans="1:44" ht="13.15" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3370,8 +3382,8 @@
       <c r="G36" s="8">
         <v>43924</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3410,18 +3422,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="75"/>
+      <c r="AR36" s="77"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="44"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="17"/>
@@ -3456,14 +3468,14 @@
       <c r="AO37" s="27"/>
       <c r="AP37" s="27"/>
       <c r="AQ37" s="27"/>
-      <c r="AR37" s="75"/>
+      <c r="AR37" s="77"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1">
-      <c r="A38" s="42">
+      <c r="A38" s="49">
         <v>16</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="32" t="s">
         <v>55</v>
       </c>
@@ -3476,8 +3488,8 @@
       <c r="G38" s="8">
         <v>43928</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="11"/>
@@ -3520,18 +3532,18 @@
       <c r="AO38" s="26"/>
       <c r="AP38" s="26"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="75"/>
+      <c r="AR38" s="77"/>
     </row>
     <row r="39" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="17"/>
@@ -3566,20 +3578,20 @@
       <c r="AO39" s="27"/>
       <c r="AP39" s="27"/>
       <c r="AQ39" s="27"/>
-      <c r="AR39" s="75"/>
+      <c r="AR39" s="77"/>
     </row>
     <row r="40" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A40" s="40">
+      <c r="A40" s="36">
         <v>17</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="40" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="15">
@@ -3588,10 +3600,10 @@
       <c r="G40" s="15">
         <v>43913</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="37">
         <v>1</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="I40" s="37" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="19"/>
@@ -3632,18 +3644,18 @@
       <c r="AO40" s="28"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
-      <c r="AR40" s="75"/>
+      <c r="AR40" s="77"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3684,14 +3696,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="75"/>
+      <c r="AR41" s="77"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="32" t="s">
         <v>61</v>
       </c>
@@ -3704,10 +3716,10 @@
       <c r="G42" s="8">
         <v>43916</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="34">
         <v>1</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="12"/>
@@ -3750,18 +3762,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="75"/>
+      <c r="AR42" s="77"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3802,14 +3814,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="75"/>
+      <c r="AR43" s="77"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="32" t="s">
         <v>62</v>
       </c>
@@ -3822,8 +3834,8 @@
       <c r="G44" s="8">
         <v>43918</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3862,18 +3874,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="75"/>
+      <c r="AR44" s="77"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3887,8 +3899,12 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="12"/>
+      <c r="W45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="Y45" s="12"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="13"/>
@@ -3908,14 +3924,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="75"/>
+      <c r="AR45" s="77"/>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="32" t="s">
         <v>63</v>
       </c>
@@ -3928,8 +3944,8 @@
       <c r="G46" s="8">
         <v>43920</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3968,18 +3984,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="75"/>
+      <c r="AR46" s="77"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -4014,14 +4030,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="75"/>
+      <c r="AR47" s="77"/>
     </row>
     <row r="48" spans="1:44" ht="13.15" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="32" t="s">
         <v>64</v>
       </c>
@@ -4034,8 +4050,8 @@
       <c r="G48" s="8">
         <v>43921</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4074,18 +4090,18 @@
       <c r="AO48" s="26"/>
       <c r="AP48" s="26"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="75"/>
+      <c r="AR48" s="77"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4120,14 +4136,14 @@
       <c r="AO49" s="26"/>
       <c r="AP49" s="26"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="75"/>
+      <c r="AR49" s="77"/>
     </row>
     <row r="50" spans="1:44" ht="13.15" customHeight="1">
       <c r="A50" s="32">
         <v>22</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -4140,8 +4156,8 @@
       <c r="G50" s="8">
         <v>43928</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="11"/>
@@ -4190,18 +4206,18 @@
       <c r="AO50" s="13"/>
       <c r="AP50" s="13"/>
       <c r="AQ50" s="13"/>
-      <c r="AR50" s="75"/>
+      <c r="AR50" s="77"/>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" s="32"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="11"/>
@@ -4236,71 +4252,180 @@
       <c r="AO51" s="13"/>
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
-      <c r="AR51" s="76"/>
+      <c r="AR51" s="78"/>
     </row>
     <row r="55" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="56" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="65" spans="1:26">
-      <c r="A65" s="79" t="s">
+      <c r="A65" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="79"/>
-      <c r="R65" s="79"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="79"/>
-      <c r="U65" s="79"/>
-      <c r="V65" s="79"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="79"/>
-      <c r="Y65" s="79"/>
-      <c r="Z65" s="79"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="79"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="79"/>
-      <c r="R66" s="79"/>
-      <c r="S66" s="79"/>
-      <c r="T66" s="79"/>
-      <c r="U66" s="79"/>
-      <c r="V66" s="79"/>
-      <c r="W66" s="79"/>
-      <c r="X66" s="79"/>
-      <c r="Y66" s="79"/>
-      <c r="Z66" s="79"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="133">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B40:C51"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR51"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A65:Z66"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4325,115 +4450,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR51"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B28:C39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B40:C51"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 조별 프로젝트 공정도.xlsx
+++ b/06. 조별 프로젝트 공정도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E647731-0825-44AE-8865-3E0C409EEC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB55588-681A-4CE8-A70C-DCB953DA5F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>모달창 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,161 +777,161 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1346,8 @@
   </sheetPr>
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1360,170 +1368,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="60" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" spans="1:45" ht="21.2" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="61" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1539,17 +1547,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="80" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1558,67 +1566,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="56" t="s">
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1730,10 +1738,10 @@
       <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>28</v>
@@ -1744,10 +1752,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1786,15 +1794,15 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="76" t="s">
+      <c r="AR8" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="8">
@@ -1803,8 +1811,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1843,15 +1851,15 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="77"/>
+      <c r="AR9" s="75"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>30</v>
@@ -1862,10 +1870,10 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="12"/>
@@ -1906,21 +1914,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="77"/>
+      <c r="AR10" s="75"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1959,15 +1967,15 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="77"/>
+      <c r="AR11" s="75"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>31</v>
@@ -1978,10 +1986,10 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="30">
         <v>1</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="12"/>
@@ -2024,21 +2032,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="77"/>
+      <c r="AR12" s="75"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -2079,15 +2087,15 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="77"/>
+      <c r="AR13" s="75"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
         <v>32</v>
@@ -2098,11 +2106,11 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="30">
         <v>0.8</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>71</v>
+      <c r="I14" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -2158,19 +2166,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="77"/>
+      <c r="AR14" s="75"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2205,8 +2213,12 @@
       <c r="W15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
+      <c r="X15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="Z15" s="26"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
@@ -2225,17 +2237,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="77"/>
+      <c r="AR15" s="75"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
       <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2244,8 +2256,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2298,18 +2310,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="77"/>
+      <c r="AR16" s="75"/>
     </row>
     <row r="17" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="51"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2344,20 +2356,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="77"/>
+      <c r="AR17" s="75"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2366,10 +2378,10 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="41">
         <v>1</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="19"/>
@@ -2412,18 +2424,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="77"/>
+      <c r="AR18" s="75"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2464,14 +2476,14 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="77"/>
+      <c r="AR19" s="75"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
@@ -2484,10 +2496,10 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="30">
         <v>1</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="12"/>
@@ -2530,18 +2542,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="77"/>
+      <c r="AR20" s="75"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
@@ -2582,14 +2594,14 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="77"/>
+      <c r="AR21" s="75"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
@@ -2602,11 +2614,11 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>71</v>
+      <c r="H22" s="30">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -2648,18 +2660,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="77"/>
+      <c r="AR22" s="75"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2676,9 +2688,11 @@
       <c r="W23" s="13"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z23" s="26"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
@@ -2696,14 +2710,14 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="77"/>
+      <c r="AR23" s="75"/>
     </row>
     <row r="24" spans="1:44" ht="13.15" customHeight="1">
       <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2716,8 +2730,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2756,18 +2770,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="77"/>
+      <c r="AR24" s="75"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2802,14 +2816,14 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="77"/>
+      <c r="AR25" s="75"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
@@ -2822,8 +2836,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2868,18 +2882,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="77"/>
+      <c r="AR26" s="75"/>
     </row>
     <row r="27" spans="1:44" ht="12.75" thickBot="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2914,20 +2928,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="77"/>
+      <c r="AR27" s="75"/>
     </row>
     <row r="28" spans="1:44" ht="12.75" customHeight="1" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="40">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="15">
@@ -2936,10 +2950,10 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="41">
         <v>1</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="19"/>
@@ -2982,18 +2996,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="77"/>
+      <c r="AR28" s="75"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -3034,14 +3048,14 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="77"/>
+      <c r="AR29" s="75"/>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
@@ -3054,10 +3068,10 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="12"/>
@@ -3100,18 +3114,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="77"/>
+      <c r="AR30" s="75"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3132,9 +3146,15 @@
       <c r="W31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="13"/>
+      <c r="X31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
@@ -3152,14 +3172,14 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="77"/>
+      <c r="AR31" s="75"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3192,12 @@
       <c r="G32" s="8">
         <v>43920</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="52">
+        <v>0</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3212,18 +3236,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="77"/>
+      <c r="AR32" s="75"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3258,14 +3282,14 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="77"/>
+      <c r="AR33" s="75"/>
     </row>
     <row r="34" spans="1:44" ht="13.15" customHeight="1">
       <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
@@ -3278,8 +3302,8 @@
       <c r="G34" s="8">
         <v>43922</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3316,18 +3340,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="77"/>
+      <c r="AR34" s="75"/>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3362,14 +3386,14 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="77"/>
+      <c r="AR35" s="75"/>
     </row>
     <row r="36" spans="1:44" ht="13.15" customHeight="1">
       <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
@@ -3382,8 +3406,8 @@
       <c r="G36" s="8">
         <v>43924</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3422,18 +3446,18 @@
       <c r="AO36" s="26"/>
       <c r="AP36" s="26"/>
       <c r="AQ36" s="26"/>
-      <c r="AR36" s="77"/>
+      <c r="AR36" s="75"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="79"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="17"/>
@@ -3468,14 +3492,14 @@
       <c r="AO37" s="27"/>
       <c r="AP37" s="27"/>
       <c r="AQ37" s="27"/>
-      <c r="AR37" s="77"/>
+      <c r="AR37" s="75"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1">
-      <c r="A38" s="49">
+      <c r="A38" s="42">
         <v>16</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="32" t="s">
         <v>55</v>
       </c>
@@ -3488,8 +3512,8 @@
       <c r="G38" s="8">
         <v>43928</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="11"/>
@@ -3532,18 +3556,18 @@
       <c r="AO38" s="26"/>
       <c r="AP38" s="26"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="77"/>
+      <c r="AR38" s="75"/>
     </row>
     <row r="39" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="52"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="17"/>
@@ -3578,20 +3602,20 @@
       <c r="AO39" s="27"/>
       <c r="AP39" s="27"/>
       <c r="AQ39" s="27"/>
-      <c r="AR39" s="77"/>
+      <c r="AR39" s="75"/>
     </row>
     <row r="40" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A40" s="36">
+      <c r="A40" s="40">
         <v>17</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="35"/>
+      <c r="D40" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="40" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="15">
@@ -3600,10 +3624,10 @@
       <c r="G40" s="15">
         <v>43913</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="41">
         <v>1</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="19"/>
@@ -3644,18 +3668,18 @@
       <c r="AO40" s="28"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
-      <c r="AR40" s="77"/>
+      <c r="AR40" s="75"/>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3696,14 +3720,14 @@
       <c r="AO41" s="26"/>
       <c r="AP41" s="26"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="77"/>
+      <c r="AR41" s="75"/>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="32" t="s">
         <v>61</v>
       </c>
@@ -3716,10 +3740,10 @@
       <c r="G42" s="8">
         <v>43916</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="30">
         <v>1</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="12"/>
@@ -3762,18 +3786,18 @@
       <c r="AO42" s="26"/>
       <c r="AP42" s="26"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="77"/>
+      <c r="AR42" s="75"/>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3814,14 +3838,14 @@
       <c r="AO43" s="26"/>
       <c r="AP43" s="26"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="77"/>
+      <c r="AR43" s="75"/>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="32" t="s">
         <v>62</v>
       </c>
@@ -3834,8 +3858,12 @@
       <c r="G44" s="8">
         <v>43918</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="30">
+        <v>1</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3874,18 +3902,18 @@
       <c r="AO44" s="26"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="77"/>
+      <c r="AR44" s="75"/>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3903,7 +3931,7 @@
         <v>27</v>
       </c>
       <c r="X45" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Y45" s="12"/>
       <c r="Z45" s="26"/>
@@ -3924,14 +3952,14 @@
       <c r="AO45" s="26"/>
       <c r="AP45" s="26"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="77"/>
+      <c r="AR45" s="75"/>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="32" t="s">
         <v>63</v>
       </c>
@@ -3944,8 +3972,12 @@
       <c r="G46" s="8">
         <v>43920</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3984,18 +4016,18 @@
       <c r="AO46" s="26"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="77"/>
+      <c r="AR46" s="75"/>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -4011,8 +4043,12 @@
       <c r="V47" s="13"/>
       <c r="W47" s="13"/>
       <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="26"/>
+      <c r="Y47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
@@ -4030,14 +4066,14 @@
       <c r="AO47" s="26"/>
       <c r="AP47" s="26"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="77"/>
+      <c r="AR47" s="75"/>
     </row>
     <row r="48" spans="1:44" ht="13.15" customHeight="1">
       <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="32" t="s">
         <v>64</v>
       </c>
@@ -4050,8 +4086,8 @@
       <c r="G48" s="8">
         <v>43921</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4090,18 +4126,18 @@
       <c r="AO48" s="26"/>
       <c r="AP48" s="26"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="77"/>
+      <c r="AR48" s="75"/>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" s="32"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4118,7 +4154,7 @@
       <c r="W49" s="13"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
-      <c r="Z49" s="26"/>
+      <c r="Z49" s="11"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
@@ -4136,14 +4172,14 @@
       <c r="AO49" s="26"/>
       <c r="AP49" s="26"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="77"/>
+      <c r="AR49" s="75"/>
     </row>
     <row r="50" spans="1:44" ht="13.15" customHeight="1">
       <c r="A50" s="32">
         <v>22</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="32" t="s">
         <v>65</v>
       </c>
@@ -4156,8 +4192,8 @@
       <c r="G50" s="8">
         <v>43928</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="11"/>
@@ -4206,18 +4242,18 @@
       <c r="AO50" s="13"/>
       <c r="AP50" s="13"/>
       <c r="AQ50" s="13"/>
-      <c r="AR50" s="77"/>
+      <c r="AR50" s="75"/>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" s="32"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="11"/>
@@ -4252,71 +4288,180 @@
       <c r="AO51" s="13"/>
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
-      <c r="AR51" s="78"/>
+      <c r="AR51" s="76"/>
     </row>
     <row r="55" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="56" spans="1:44" ht="13.15" customHeight="1"/>
     <row r="65" spans="1:26">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="79"/>
+      <c r="U66" s="79"/>
+      <c r="V66" s="79"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="133">
+    <mergeCell ref="A65:Z66"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AR8:AR51"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="D50:D51"/>
@@ -4341,115 +4486,6 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B28:C39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AR8:AR51"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A65:Z66"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
